--- a/Irregular verbs.xlsx
+++ b/Irregular verbs.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="533">
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>was, were | been</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="411">
+  <si>
+    <t>arise</t>
+  </si>
+  <si>
+    <t>arose | arisen</t>
   </si>
   <si>
     <t>irregular verb</t>
@@ -35,12 +35,6 @@
     <t>beat | beaten, beat</t>
   </si>
   <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>became | become</t>
-  </si>
-  <si>
     <t>befall</t>
   </si>
   <si>
@@ -71,12 +65,6 @@
     <t>bent | bent</t>
   </si>
   <si>
-    <t>bereave</t>
-  </si>
-  <si>
-    <t>bereft, bereaved | bereaved, bereft</t>
-  </si>
-  <si>
     <t>beseech</t>
   </si>
   <si>
@@ -95,24 +83,12 @@
     <t>bestrode | bestridden, bestrid, bestrode</t>
   </si>
   <si>
-    <t>bet</t>
-  </si>
-  <si>
-    <t>bet, betted | bet, betted</t>
-  </si>
-  <si>
     <t>betake</t>
   </si>
   <si>
     <t>betook | betaken</t>
   </si>
   <si>
-    <t>bid</t>
-  </si>
-  <si>
-    <t>bade, bid | bade, bid, bidden</t>
-  </si>
-  <si>
     <t>bind</t>
   </si>
   <si>
@@ -143,12 +119,6 @@
     <t>broke | broken</t>
   </si>
   <si>
-    <t>breed</t>
-  </si>
-  <si>
-    <t>bred | bred</t>
-  </si>
-  <si>
     <t>bring</t>
   </si>
   <si>
@@ -167,18 +137,6 @@
     <t>built | built</t>
   </si>
   <si>
-    <t>burn</t>
-  </si>
-  <si>
-    <t>burnt, burned | burnt, burned</t>
-  </si>
-  <si>
-    <t>burst</t>
-  </si>
-  <si>
-    <t>burst | burst</t>
-  </si>
-  <si>
     <t>bust</t>
   </si>
   <si>
@@ -191,12 +149,6 @@
     <t>bought | bought</t>
   </si>
   <si>
-    <t>cast</t>
-  </si>
-  <si>
-    <t>cast | cast</t>
-  </si>
-  <si>
     <t>catch</t>
   </si>
   <si>
@@ -227,24 +179,12 @@
     <t>clung | clung</t>
   </si>
   <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>came | come</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
     <t>cost | cost</t>
   </si>
   <si>
-    <t>creep</t>
-  </si>
-  <si>
-    <t>crept | crept</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
@@ -263,12 +203,6 @@
     <t>deepfroze, -freezed | deepfrozen, -freezed</t>
   </si>
   <si>
-    <t>dig</t>
-  </si>
-  <si>
-    <t>dug | dug</t>
-  </si>
-  <si>
     <t>dive</t>
   </si>
   <si>
@@ -359,12 +293,6 @@
     <t>fit, fitted* | fit, fitted*</t>
   </si>
   <si>
-    <t>flee</t>
-  </si>
-  <si>
-    <t>fled | fled</t>
-  </si>
-  <si>
     <t>fling</t>
   </si>
   <si>
@@ -383,30 +311,12 @@
     <t>forbore | forborne</t>
   </si>
   <si>
-    <t>forbid</t>
-  </si>
-  <si>
-    <t>forbade, forbad | forbidden, forbid</t>
-  </si>
-  <si>
-    <t>forecast</t>
-  </si>
-  <si>
-    <t>forecast, forecasted* | forecast, forecasted*</t>
-  </si>
-  <si>
     <t>foresee</t>
   </si>
   <si>
     <t>foresaw | foreseen</t>
   </si>
   <si>
-    <t>foretell</t>
-  </si>
-  <si>
-    <t>foretold | foretold</t>
-  </si>
-  <si>
     <t>forget</t>
   </si>
   <si>
@@ -425,12 +335,6 @@
     <t>forwent | forgone</t>
   </si>
   <si>
-    <t>forsake</t>
-  </si>
-  <si>
-    <t>forsook | forsaken</t>
-  </si>
-  <si>
     <t>forswear</t>
   </si>
   <si>
@@ -449,12 +353,6 @@
     <t>gainsaid | gainsaid</t>
   </si>
   <si>
-    <t>geld</t>
-  </si>
-  <si>
-    <t>gelded, gelt | gelded, gelt</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -509,18 +407,6 @@
     <t>heard | heard</t>
   </si>
   <si>
-    <t>heave</t>
-  </si>
-  <si>
-    <t>heaved, hove | heaved, hove</t>
-  </si>
-  <si>
-    <t>hew</t>
-  </si>
-  <si>
-    <t>hewed | hewn, hewed</t>
-  </si>
-  <si>
     <t>hide</t>
   </si>
   <si>
@@ -563,24 +449,12 @@
     <t>knelt, kneeled | knelt, kneeled</t>
   </si>
   <si>
-    <t>knit</t>
-  </si>
-  <si>
-    <t>knitted, knit | knitted, knit</t>
-  </si>
-  <si>
     <t>know</t>
   </si>
   <si>
     <t>knew | known</t>
   </si>
   <si>
-    <t>lay</t>
-  </si>
-  <si>
-    <t>laid | laid</t>
-  </si>
-  <si>
     <t>lead</t>
   </si>
   <si>
@@ -593,12 +467,6 @@
     <t>leant, leaned | leant, leaned</t>
   </si>
   <si>
-    <t>leap</t>
-  </si>
-  <si>
-    <t>leapt, leaped | leapt, leaped</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
@@ -659,12 +527,6 @@
     <t>met | met</t>
   </si>
   <si>
-    <t>miscast</t>
-  </si>
-  <si>
-    <t>miscast | miscast</t>
-  </si>
-  <si>
     <t>misdeal</t>
   </si>
   <si>
@@ -683,12 +545,6 @@
     <t>misheard | misheard</t>
   </si>
   <si>
-    <t>mislay</t>
-  </si>
-  <si>
-    <t>mislaid | mislaid</t>
-  </si>
-  <si>
     <t>mislead</t>
   </si>
   <si>
@@ -719,12 +575,6 @@
     <t>misunderstood | misunderstood</t>
   </si>
   <si>
-    <t>mow</t>
-  </si>
-  <si>
-    <t>mowed | mown, mowed</t>
-  </si>
-  <si>
     <t>offset</t>
   </si>
   <si>
@@ -773,18 +623,6 @@
     <t>overbore | overborne</t>
   </si>
   <si>
-    <t>overcast</t>
-  </si>
-  <si>
-    <t>overcast | overcast</t>
-  </si>
-  <si>
-    <t>overcome</t>
-  </si>
-  <si>
-    <t>overcame | overcome</t>
-  </si>
-  <si>
     <t>overdo</t>
   </si>
   <si>
@@ -863,12 +701,6 @@
     <t>paid | paid</t>
   </si>
   <si>
-    <t>pen</t>
-  </si>
-  <si>
-    <t>pent, penned | pent, penned</t>
-  </si>
-  <si>
     <t>plead</t>
   </si>
   <si>
@@ -881,12 +713,6 @@
     <t>proved | proved, proven</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>put | put</t>
-  </si>
-  <si>
     <t>quit</t>
   </si>
   <si>
@@ -911,12 +737,6 @@
     <t>rebuilt | rebuilt</t>
   </si>
   <si>
-    <t>recast</t>
-  </si>
-  <si>
-    <t>recast | recast</t>
-  </si>
-  <si>
     <t>redo</t>
   </si>
   <si>
@@ -929,12 +749,6 @@
     <t>remade | remade</t>
   </si>
   <si>
-    <t>relay</t>
-  </si>
-  <si>
-    <t>relaid | relaid</t>
-  </si>
-  <si>
     <t>rend</t>
   </si>
   <si>
@@ -971,12 +785,6 @@
     <t>restrung | restrung</t>
   </si>
   <si>
-    <t>retell</t>
-  </si>
-  <si>
-    <t>retold | retold</t>
-  </si>
-  <si>
     <t>rethink</t>
   </si>
   <si>
@@ -995,12 +803,6 @@
     <t>rewrote | rewritten</t>
   </si>
   <si>
-    <t>rid</t>
-  </si>
-  <si>
-    <t>rid, ridded | rid, ridded</t>
-  </si>
-  <si>
     <t>ride</t>
   </si>
   <si>
@@ -1025,12 +827,6 @@
     <t>ran | run</t>
   </si>
   <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>sawed | sawn, sawed</t>
-  </si>
-  <si>
     <t>say</t>
   </si>
   <si>
@@ -1067,12 +863,6 @@
     <t>set | set</t>
   </si>
   <si>
-    <t>sew</t>
-  </si>
-  <si>
-    <t>sewed | sewn, sewed</t>
-  </si>
-  <si>
     <t>shake</t>
   </si>
   <si>
@@ -1091,18 +881,6 @@
     <t>sheared | shorn, sheared</t>
   </si>
   <si>
-    <t>shed</t>
-  </si>
-  <si>
-    <t>shed | shed</t>
-  </si>
-  <si>
-    <t>shew</t>
-  </si>
-  <si>
-    <t>shewed | shewn</t>
-  </si>
-  <si>
     <t>shine</t>
   </si>
   <si>
@@ -1145,18 +923,6 @@
     <t>shrank, shrunk | shrunk</t>
   </si>
   <si>
-    <t>shrive</t>
-  </si>
-  <si>
-    <t>shrived, shrove | shrived, shriven</t>
-  </si>
-  <si>
-    <t>shut</t>
-  </si>
-  <si>
-    <t>shut | shut</t>
-  </si>
-  <si>
     <t>sing</t>
   </si>
   <si>
@@ -1175,24 +941,12 @@
     <t>sat | sat</t>
   </si>
   <si>
-    <t>slay</t>
-  </si>
-  <si>
-    <t>slew | slain</t>
-  </si>
-  <si>
     <t>sleep</t>
   </si>
   <si>
     <t>slept | slept</t>
   </si>
   <si>
-    <t>slide</t>
-  </si>
-  <si>
-    <t>slid | slid</t>
-  </si>
-  <si>
     <t>sling</t>
   </si>
   <si>
@@ -1205,42 +959,18 @@
     <t>slunk | slunk</t>
   </si>
   <si>
-    <t>slit</t>
-  </si>
-  <si>
-    <t>slit | slit</t>
-  </si>
-  <si>
     <t>smell</t>
   </si>
   <si>
     <t>smelt, smelled | smelt, smelled</t>
   </si>
   <si>
-    <t>smite</t>
-  </si>
-  <si>
-    <t>smote | smitten</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>sowed | sown, sowed</t>
-  </si>
-  <si>
     <t>speak</t>
   </si>
   <si>
     <t>spoke | spoken</t>
   </si>
   <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>sped, speeded | sped, speeded</t>
-  </si>
-  <si>
     <t>spell</t>
   </si>
   <si>
@@ -1265,18 +995,6 @@
     <t>spun, span | spun</t>
   </si>
   <si>
-    <t>spit</t>
-  </si>
-  <si>
-    <t>spat, spit | spat, spit</t>
-  </si>
-  <si>
-    <t>split</t>
-  </si>
-  <si>
-    <t>split | split</t>
-  </si>
-  <si>
     <t>spoil</t>
   </si>
   <si>
@@ -1325,36 +1043,18 @@
     <t>stank, stunk | stunk</t>
   </si>
   <si>
-    <t>strew</t>
-  </si>
-  <si>
-    <t>strewed | strewn, strewed</t>
-  </si>
-  <si>
     <t>stride</t>
   </si>
   <si>
     <t>strode | stridden, strid, strode</t>
   </si>
   <si>
-    <t>strike</t>
-  </si>
-  <si>
-    <t>struck | struck</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>strung | strung</t>
   </si>
   <si>
-    <t>strive</t>
-  </si>
-  <si>
-    <t>strove, strived | striven, strived</t>
-  </si>
-  <si>
     <t>swear</t>
   </si>
   <si>
@@ -1367,12 +1067,6 @@
     <t>sweat, sweated | sweat, sweated</t>
   </si>
   <si>
-    <t>sweep</t>
-  </si>
-  <si>
-    <t>swept | swept</t>
-  </si>
-  <si>
     <t>swell</t>
   </si>
   <si>
@@ -1409,42 +1103,18 @@
     <t>tore | torn</t>
   </si>
   <si>
-    <t>telecast</t>
-  </si>
-  <si>
-    <t>telecast, telecasted* | telecast, telecasted*</t>
-  </si>
-  <si>
-    <t>tell</t>
-  </si>
-  <si>
-    <t>told | told</t>
-  </si>
-  <si>
     <t>think</t>
   </si>
   <si>
     <t>thought | thought</t>
   </si>
   <si>
-    <t>thrive</t>
-  </si>
-  <si>
-    <t>thrived, throve | thrived, thriven</t>
-  </si>
-  <si>
     <t>throw</t>
   </si>
   <si>
     <t>threw | thrown</t>
   </si>
   <si>
-    <t>thrust</t>
-  </si>
-  <si>
-    <t>thrust | thrust</t>
-  </si>
-  <si>
     <t>tread</t>
   </si>
   <si>
@@ -1463,12 +1133,6 @@
     <t>unbound | unbound</t>
   </si>
   <si>
-    <t>underbid</t>
-  </si>
-  <si>
-    <t>underbid | underbid, underbidden</t>
-  </si>
-  <si>
     <t>undergo</t>
   </si>
   <si>
@@ -1529,40 +1193,10 @@
     <t>upset | upset</t>
   </si>
   <si>
-    <t>wake</t>
-  </si>
-  <si>
-    <t>woke, waked | woken, waked</t>
-  </si>
-  <si>
-    <t>waylay</t>
-  </si>
-  <si>
-    <t>waylaid | waylaid</t>
-  </si>
-  <si>
     <t>wear</t>
   </si>
   <si>
     <t>wore | worn</t>
-  </si>
-  <si>
-    <t>weave</t>
-  </si>
-  <si>
-    <t>wove | woven</t>
-  </si>
-  <si>
-    <t>wed</t>
-  </si>
-  <si>
-    <t>wedded, wed | wedded, wed</t>
-  </si>
-  <si>
-    <t>weep</t>
-  </si>
-  <si>
-    <t>wept | wept</t>
   </si>
   <si>
     <t>wet</t>
@@ -1655,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="C1:E266"/>
+  <dimension ref="C1:E205"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3916,677 +3550,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206">
-      <c r="C206" t="s">
-        <v>411</v>
-      </c>
-      <c r="D206" t="s">
-        <v>412</v>
-      </c>
-      <c r="E206" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="C207" t="s">
-        <v>413</v>
-      </c>
-      <c r="D207" t="s">
-        <v>414</v>
-      </c>
-      <c r="E207" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="C208" t="s">
-        <v>415</v>
-      </c>
-      <c r="D208" t="s">
-        <v>416</v>
-      </c>
-      <c r="E208" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="C209" t="s">
-        <v>417</v>
-      </c>
-      <c r="D209" t="s">
-        <v>418</v>
-      </c>
-      <c r="E209" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="C210" t="s">
-        <v>419</v>
-      </c>
-      <c r="D210" t="s">
-        <v>420</v>
-      </c>
-      <c r="E210" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="C211" t="s">
-        <v>421</v>
-      </c>
-      <c r="D211" t="s">
-        <v>422</v>
-      </c>
-      <c r="E211" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" t="s">
-        <v>423</v>
-      </c>
-      <c r="D212" t="s">
-        <v>424</v>
-      </c>
-      <c r="E212" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="C213" t="s">
-        <v>425</v>
-      </c>
-      <c r="D213" t="s">
-        <v>426</v>
-      </c>
-      <c r="E213" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="C214" t="s">
-        <v>427</v>
-      </c>
-      <c r="D214" t="s">
-        <v>428</v>
-      </c>
-      <c r="E214" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="C215" t="s">
-        <v>429</v>
-      </c>
-      <c r="D215" t="s">
-        <v>430</v>
-      </c>
-      <c r="E215" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="C216" t="s">
-        <v>431</v>
-      </c>
-      <c r="D216" t="s">
-        <v>432</v>
-      </c>
-      <c r="E216" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="C217" t="s">
-        <v>433</v>
-      </c>
-      <c r="D217" t="s">
-        <v>434</v>
-      </c>
-      <c r="E217" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="C218" t="s">
-        <v>435</v>
-      </c>
-      <c r="D218" t="s">
-        <v>436</v>
-      </c>
-      <c r="E218" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="C219" t="s">
-        <v>437</v>
-      </c>
-      <c r="D219" t="s">
-        <v>438</v>
-      </c>
-      <c r="E219" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="C220" t="s">
-        <v>439</v>
-      </c>
-      <c r="D220" t="s">
-        <v>440</v>
-      </c>
-      <c r="E220" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="C221" t="s">
-        <v>441</v>
-      </c>
-      <c r="D221" t="s">
-        <v>442</v>
-      </c>
-      <c r="E221" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="C222" t="s">
-        <v>443</v>
-      </c>
-      <c r="D222" t="s">
-        <v>444</v>
-      </c>
-      <c r="E222" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="C223" t="s">
-        <v>445</v>
-      </c>
-      <c r="D223" t="s">
-        <v>446</v>
-      </c>
-      <c r="E223" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="C224" t="s">
-        <v>447</v>
-      </c>
-      <c r="D224" t="s">
-        <v>448</v>
-      </c>
-      <c r="E224" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="C225" t="s">
-        <v>449</v>
-      </c>
-      <c r="D225" t="s">
-        <v>450</v>
-      </c>
-      <c r="E225" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="C226" t="s">
-        <v>451</v>
-      </c>
-      <c r="D226" t="s">
-        <v>452</v>
-      </c>
-      <c r="E226" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="C227" t="s">
-        <v>453</v>
-      </c>
-      <c r="D227" t="s">
-        <v>454</v>
-      </c>
-      <c r="E227" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="C228" t="s">
-        <v>455</v>
-      </c>
-      <c r="D228" t="s">
-        <v>456</v>
-      </c>
-      <c r="E228" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="C229" t="s">
-        <v>457</v>
-      </c>
-      <c r="D229" t="s">
-        <v>458</v>
-      </c>
-      <c r="E229" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="C230" t="s">
-        <v>459</v>
-      </c>
-      <c r="D230" t="s">
-        <v>460</v>
-      </c>
-      <c r="E230" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="C231" t="s">
-        <v>461</v>
-      </c>
-      <c r="D231" t="s">
-        <v>462</v>
-      </c>
-      <c r="E231" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="C232" t="s">
-        <v>463</v>
-      </c>
-      <c r="D232" t="s">
-        <v>464</v>
-      </c>
-      <c r="E232" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="C233" t="s">
-        <v>465</v>
-      </c>
-      <c r="D233" t="s">
-        <v>466</v>
-      </c>
-      <c r="E233" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="C234" t="s">
-        <v>467</v>
-      </c>
-      <c r="D234" t="s">
-        <v>468</v>
-      </c>
-      <c r="E234" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="C235" t="s">
-        <v>469</v>
-      </c>
-      <c r="D235" t="s">
-        <v>470</v>
-      </c>
-      <c r="E235" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="C236" t="s">
-        <v>471</v>
-      </c>
-      <c r="D236" t="s">
-        <v>472</v>
-      </c>
-      <c r="E236" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="C237" t="s">
-        <v>473</v>
-      </c>
-      <c r="D237" t="s">
-        <v>474</v>
-      </c>
-      <c r="E237" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="C238" t="s">
-        <v>475</v>
-      </c>
-      <c r="D238" t="s">
-        <v>476</v>
-      </c>
-      <c r="E238" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="C239" t="s">
-        <v>477</v>
-      </c>
-      <c r="D239" t="s">
-        <v>478</v>
-      </c>
-      <c r="E239" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="C240" t="s">
-        <v>479</v>
-      </c>
-      <c r="D240" t="s">
-        <v>480</v>
-      </c>
-      <c r="E240" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="C241" t="s">
-        <v>481</v>
-      </c>
-      <c r="D241" t="s">
-        <v>482</v>
-      </c>
-      <c r="E241" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="C242" t="s">
-        <v>483</v>
-      </c>
-      <c r="D242" t="s">
-        <v>484</v>
-      </c>
-      <c r="E242" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="C243" t="s">
-        <v>485</v>
-      </c>
-      <c r="D243" t="s">
-        <v>486</v>
-      </c>
-      <c r="E243" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="C244" t="s">
-        <v>487</v>
-      </c>
-      <c r="D244" t="s">
-        <v>488</v>
-      </c>
-      <c r="E244" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="C245" t="s">
-        <v>489</v>
-      </c>
-      <c r="D245" t="s">
-        <v>490</v>
-      </c>
-      <c r="E245" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="C246" t="s">
-        <v>491</v>
-      </c>
-      <c r="D246" t="s">
-        <v>492</v>
-      </c>
-      <c r="E246" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="C247" t="s">
-        <v>493</v>
-      </c>
-      <c r="D247" t="s">
-        <v>494</v>
-      </c>
-      <c r="E247" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="C248" t="s">
-        <v>495</v>
-      </c>
-      <c r="D248" t="s">
-        <v>496</v>
-      </c>
-      <c r="E248" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="C249" t="s">
-        <v>497</v>
-      </c>
-      <c r="D249" t="s">
-        <v>498</v>
-      </c>
-      <c r="E249" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="C250" t="s">
-        <v>499</v>
-      </c>
-      <c r="D250" t="s">
-        <v>500</v>
-      </c>
-      <c r="E250" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="C251" t="s">
-        <v>501</v>
-      </c>
-      <c r="D251" t="s">
-        <v>502</v>
-      </c>
-      <c r="E251" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="C252" t="s">
-        <v>503</v>
-      </c>
-      <c r="D252" t="s">
-        <v>504</v>
-      </c>
-      <c r="E252" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="C253" t="s">
-        <v>505</v>
-      </c>
-      <c r="D253" t="s">
-        <v>506</v>
-      </c>
-      <c r="E253" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="C254" t="s">
-        <v>507</v>
-      </c>
-      <c r="D254" t="s">
-        <v>508</v>
-      </c>
-      <c r="E254" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="C255" t="s">
-        <v>509</v>
-      </c>
-      <c r="D255" t="s">
-        <v>510</v>
-      </c>
-      <c r="E255" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="C256" t="s">
-        <v>511</v>
-      </c>
-      <c r="D256" t="s">
-        <v>512</v>
-      </c>
-      <c r="E256" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="C257" t="s">
-        <v>513</v>
-      </c>
-      <c r="D257" t="s">
-        <v>514</v>
-      </c>
-      <c r="E257" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="C258" t="s">
-        <v>515</v>
-      </c>
-      <c r="D258" t="s">
-        <v>516</v>
-      </c>
-      <c r="E258" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="C259" t="s">
-        <v>517</v>
-      </c>
-      <c r="D259" t="s">
-        <v>518</v>
-      </c>
-      <c r="E259" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="C260" t="s">
-        <v>519</v>
-      </c>
-      <c r="D260" t="s">
-        <v>520</v>
-      </c>
-      <c r="E260" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="C261" t="s">
-        <v>521</v>
-      </c>
-      <c r="D261" t="s">
-        <v>522</v>
-      </c>
-      <c r="E261" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="C262" t="s">
-        <v>523</v>
-      </c>
-      <c r="D262" t="s">
-        <v>524</v>
-      </c>
-      <c r="E262" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="C263" t="s">
-        <v>525</v>
-      </c>
-      <c r="D263" t="s">
-        <v>526</v>
-      </c>
-      <c r="E263" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="C264" t="s">
-        <v>527</v>
-      </c>
-      <c r="D264" t="s">
-        <v>528</v>
-      </c>
-      <c r="E264" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="C265" t="s">
-        <v>529</v>
-      </c>
-      <c r="D265" t="s">
-        <v>530</v>
-      </c>
-      <c r="E265" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="C266" t="s">
-        <v>531</v>
-      </c>
-      <c r="D266" t="s">
-        <v>532</v>
-      </c>
-      <c r="E266" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
